--- a/01_Requirements/LedgerTypes/015_Indirect Incomes.xlsx
+++ b/01_Requirements/LedgerTypes/015_Indirect Incomes.xlsx
@@ -321,6 +321,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -330,9 +348,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -348,8 +363,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -374,24 +392,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -678,8 +678,8 @@
   </sheetPr>
   <dimension ref="D2:L33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1"/>
@@ -696,302 +696,296 @@
     </row>
     <row r="3" spans="4:12" ht="24.95" customHeight="1" thickBot="1"/>
     <row r="4" spans="4:12" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="4"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="10"/>
     </row>
     <row r="5" spans="4:12" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="9" t="s">
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="10"/>
+      <c r="L5" s="15"/>
     </row>
     <row r="6" spans="4:12" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D6" s="5"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="10"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="15"/>
     </row>
     <row r="7" spans="4:12" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="12" t="s">
+      <c r="F7" s="19"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="15"/>
     </row>
     <row r="8" spans="4:12" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D8" s="5"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="10"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="15"/>
     </row>
     <row r="9" spans="4:12" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="10"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="15"/>
     </row>
     <row r="10" spans="4:12" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D10" s="5"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="10"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="15"/>
     </row>
     <row r="11" spans="4:12" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="10"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="15"/>
     </row>
     <row r="12" spans="4:12" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D12" s="5"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="10"/>
+      <c r="D12" s="2"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="15"/>
     </row>
     <row r="13" spans="4:12" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="2" t="s">
+      <c r="F13" s="9"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="10"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="15"/>
     </row>
     <row r="14" spans="4:12" ht="24.95" customHeight="1">
-      <c r="D14" s="5"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="10"/>
+      <c r="D14" s="2"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="15"/>
     </row>
     <row r="15" spans="4:12" ht="24.95" customHeight="1">
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15" t="s">
+      <c r="F15" s="21"/>
+      <c r="G15" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15" t="s">
+      <c r="H15" s="21"/>
+      <c r="I15" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="J15" s="15"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="10"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="15"/>
     </row>
     <row r="16" spans="4:12" ht="24.95" customHeight="1">
-      <c r="D16" s="5"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="10"/>
+      <c r="D16" s="2"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="15"/>
     </row>
     <row r="17" spans="4:12" ht="24.95" customHeight="1">
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="16" t="s">
+      <c r="F17" s="23"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="17"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="10"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="15"/>
     </row>
     <row r="18" spans="4:12" ht="24.95" customHeight="1">
-      <c r="D18" s="5"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="10"/>
+      <c r="D18" s="2"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="15"/>
     </row>
     <row r="19" spans="4:12" ht="24.95" customHeight="1">
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="16" t="s">
+      <c r="F19" s="23"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="17"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="10"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="15"/>
     </row>
     <row r="20" spans="4:12" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D20" s="5"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="10"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="15"/>
     </row>
     <row r="21" spans="4:12" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="10"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="15"/>
     </row>
     <row r="22" spans="4:12" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D22" s="5"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="10"/>
+      <c r="D22" s="2"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="15"/>
     </row>
     <row r="23" spans="4:12" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="23"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="17"/>
     </row>
     <row r="25" spans="4:12" ht="20.100000000000001" customHeight="1">
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="4:12" ht="20.100000000000001" customHeight="1">
-      <c r="D26" s="25" t="s">
+      <c r="D26" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="4:12" ht="20.100000000000001" customHeight="1">
-      <c r="D27" s="25" t="s">
+      <c r="D27" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="4:12" ht="20.100000000000001" customHeight="1">
-      <c r="D28" s="25" t="s">
+      <c r="D28" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="4:12" ht="20.100000000000001" customHeight="1">
-      <c r="D29" s="25" t="s">
+      <c r="D29" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="4:12" ht="20.100000000000001" customHeight="1">
-      <c r="D30" s="25" t="s">
+      <c r="D30" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="4:12" ht="20.100000000000001" customHeight="1">
-      <c r="D31" s="25" t="s">
+      <c r="D31" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="4:12" ht="20.100000000000001" customHeight="1">
-      <c r="D32" s="25" t="s">
+      <c r="D32" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="33" spans="4:4" ht="20.100000000000001" customHeight="1">
-      <c r="D33" s="25" t="s">
+      <c r="D33" s="7" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:J17"/>
     <mergeCell ref="E19:G19"/>
     <mergeCell ref="H19:J19"/>
     <mergeCell ref="D4:L4"/>
@@ -1004,6 +998,12 @@
     <mergeCell ref="E13:G13"/>
     <mergeCell ref="H13:J13"/>
     <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:J17"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.31496062992125984" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
